--- a/docs/Diagramas/Tabla de eventos.xlsx
+++ b/docs/Diagramas/Tabla de eventos.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>43381</v>
+        <v>43347</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
